--- a/data/pca/factorExposure/factorExposure_2011-04-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.004087474635002739</v>
+        <v>0.0110674448757065</v>
       </c>
       <c r="C2">
-        <v>0.003672508865941397</v>
+        <v>0.006771317277939684</v>
       </c>
       <c r="D2">
-        <v>0.04601577152977518</v>
+        <v>0.02405110054008376</v>
       </c>
       <c r="E2">
-        <v>0.01183294162766237</v>
+        <v>-0.01562097561136329</v>
       </c>
       <c r="F2">
-        <v>-0.005398514119600255</v>
+        <v>0.003746826722357902</v>
       </c>
       <c r="G2">
-        <v>0.02662430059419288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.008649058327695955</v>
+      </c>
+      <c r="H2">
+        <v>-0.0351027005136718</v>
+      </c>
+      <c r="I2">
+        <v>0.03408398770597977</v>
+      </c>
+      <c r="J2">
+        <v>-0.03652282905055745</v>
+      </c>
+      <c r="K2">
+        <v>0.0337643273724855</v>
+      </c>
+      <c r="L2">
+        <v>-0.02070511063680345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.09786350983261526</v>
+        <v>0.1106696188688824</v>
       </c>
       <c r="C4">
-        <v>0.04316758726627622</v>
+        <v>-0.06490416279809076</v>
       </c>
       <c r="D4">
-        <v>0.03805679326838003</v>
+        <v>0.02339097404966466</v>
       </c>
       <c r="E4">
-        <v>-0.05187359712865353</v>
+        <v>-0.01819398956452776</v>
       </c>
       <c r="F4">
-        <v>-0.04004406290033559</v>
+        <v>-0.1566520211657449</v>
       </c>
       <c r="G4">
-        <v>0.02635029812979556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0159590988854605</v>
+      </c>
+      <c r="H4">
+        <v>-0.02187435985634424</v>
+      </c>
+      <c r="I4">
+        <v>-0.01944959233566584</v>
+      </c>
+      <c r="J4">
+        <v>0.01452585184360045</v>
+      </c>
+      <c r="K4">
+        <v>-0.09066751147745555</v>
+      </c>
+      <c r="L4">
+        <v>-0.05254141854969954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1293941984429144</v>
+        <v>0.1327295062948771</v>
       </c>
       <c r="C6">
-        <v>0.0292638711105619</v>
+        <v>-0.04742141185587977</v>
       </c>
       <c r="D6">
-        <v>0.03692065744646025</v>
+        <v>-0.002041862305795543</v>
       </c>
       <c r="E6">
-        <v>-0.03192173471855997</v>
+        <v>-0.0012185045713191</v>
       </c>
       <c r="F6">
-        <v>0.1451913616676473</v>
+        <v>-0.00704793519293413</v>
       </c>
       <c r="G6">
-        <v>-0.116633479132795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0736653622988865</v>
+      </c>
+      <c r="H6">
+        <v>-0.02877965815927223</v>
+      </c>
+      <c r="I6">
+        <v>-0.2865242231819051</v>
+      </c>
+      <c r="J6">
+        <v>0.2937538537058377</v>
+      </c>
+      <c r="K6">
+        <v>0.09410076280762208</v>
+      </c>
+      <c r="L6">
+        <v>-0.2346460728106046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.08589448676018545</v>
+        <v>0.07981727665443657</v>
       </c>
       <c r="C7">
-        <v>0.04481715503434388</v>
+        <v>-0.06652398871628316</v>
       </c>
       <c r="D7">
-        <v>0.04618542147697968</v>
+        <v>0.03257747874069337</v>
       </c>
       <c r="E7">
-        <v>-0.03538496936319217</v>
+        <v>-0.01701886639265517</v>
       </c>
       <c r="F7">
-        <v>0.02402181680668487</v>
+        <v>-0.03022699408937091</v>
       </c>
       <c r="G7">
-        <v>0.01490380508497199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.004138381007904071</v>
+      </c>
+      <c r="H7">
+        <v>0.01948332692460788</v>
+      </c>
+      <c r="I7">
+        <v>0.004777627234980792</v>
+      </c>
+      <c r="J7">
+        <v>-0.02220380282593808</v>
+      </c>
+      <c r="K7">
+        <v>-0.1197801193502383</v>
+      </c>
+      <c r="L7">
+        <v>0.02991855193107727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.04437911398173151</v>
+        <v>0.04465526960234732</v>
       </c>
       <c r="C8">
-        <v>0.003210900013419285</v>
+        <v>-0.01542984335682248</v>
       </c>
       <c r="D8">
-        <v>0.06642174075660615</v>
+        <v>0.007213528806010192</v>
       </c>
       <c r="E8">
-        <v>-0.06119425083233686</v>
+        <v>-0.01743127550288034</v>
       </c>
       <c r="F8">
-        <v>-0.04237204110175197</v>
+        <v>-0.1395920176995258</v>
       </c>
       <c r="G8">
-        <v>0.08884551570708914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.006905056439188758</v>
+      </c>
+      <c r="H8">
+        <v>-0.05997697895299821</v>
+      </c>
+      <c r="I8">
+        <v>-0.06318356250032182</v>
+      </c>
+      <c r="J8">
+        <v>-0.006586246401383784</v>
+      </c>
+      <c r="K8">
+        <v>-0.08494131292035638</v>
+      </c>
+      <c r="L8">
+        <v>-0.0765591687964345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.08678715956116534</v>
+        <v>0.08403321376976797</v>
       </c>
       <c r="C9">
-        <v>0.04255446973716601</v>
+        <v>-0.05694218389093834</v>
       </c>
       <c r="D9">
-        <v>0.03659459452090771</v>
+        <v>0.02222374889954795</v>
       </c>
       <c r="E9">
-        <v>-0.03295785819198499</v>
+        <v>0.001538039954228003</v>
       </c>
       <c r="F9">
-        <v>-0.02173792273714854</v>
+        <v>-0.13833778689197</v>
       </c>
       <c r="G9">
-        <v>0.04144476555768823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0114647956494796</v>
+      </c>
+      <c r="H9">
+        <v>-0.001254608972058918</v>
+      </c>
+      <c r="I9">
+        <v>-0.02037880160892448</v>
+      </c>
+      <c r="J9">
+        <v>-0.007983856714758476</v>
+      </c>
+      <c r="K9">
+        <v>-0.05654826400818486</v>
+      </c>
+      <c r="L9">
+        <v>-0.04652334994283797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.04302401644459918</v>
+        <v>0.1050957305103542</v>
       </c>
       <c r="C10">
-        <v>-0.1519540361720234</v>
+        <v>0.1607076807835769</v>
       </c>
       <c r="D10">
-        <v>0.09196317779437392</v>
+        <v>0.05901357318048685</v>
       </c>
       <c r="E10">
-        <v>-0.04374067956338407</v>
+        <v>-0.03012566089922536</v>
       </c>
       <c r="F10">
-        <v>0.03926808982201743</v>
+        <v>0.0079890153117789</v>
       </c>
       <c r="G10">
-        <v>0.01459061950167053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01058242583063352</v>
+      </c>
+      <c r="H10">
+        <v>0.0519037327031037</v>
+      </c>
+      <c r="I10">
+        <v>-0.003446200424837734</v>
+      </c>
+      <c r="J10">
+        <v>0.04315354479854883</v>
+      </c>
+      <c r="K10">
+        <v>-0.00596149890108092</v>
+      </c>
+      <c r="L10">
+        <v>0.06584191643464407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07215458690631077</v>
+        <v>0.07436329255083261</v>
       </c>
       <c r="C11">
-        <v>0.05943707206502192</v>
+        <v>-0.06934795792878114</v>
       </c>
       <c r="D11">
-        <v>0.00168020845034574</v>
+        <v>0.006454996940906563</v>
       </c>
       <c r="E11">
-        <v>-0.0003252868320858408</v>
+        <v>0.02470867744986988</v>
       </c>
       <c r="F11">
-        <v>-0.01602295536576572</v>
+        <v>-0.1304671685633849</v>
       </c>
       <c r="G11">
-        <v>0.1328820542956132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01371480033990058</v>
+      </c>
+      <c r="H11">
+        <v>0.04779757742243287</v>
+      </c>
+      <c r="I11">
+        <v>0.04553644083782667</v>
+      </c>
+      <c r="J11">
+        <v>-0.09305046466165426</v>
+      </c>
+      <c r="K11">
+        <v>0.02691253388703547</v>
+      </c>
+      <c r="L11">
+        <v>-0.0156203639628551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06780959204920642</v>
+        <v>0.06774154513187935</v>
       </c>
       <c r="C12">
-        <v>0.03480682625212559</v>
+        <v>-0.06032872148868972</v>
       </c>
       <c r="D12">
-        <v>-0.004334669602563223</v>
+        <v>0.01114474157155709</v>
       </c>
       <c r="E12">
-        <v>-0.04333004681734002</v>
+        <v>0.02470693475652483</v>
       </c>
       <c r="F12">
-        <v>-0.01187195782521097</v>
+        <v>-0.1355369551137007</v>
       </c>
       <c r="G12">
-        <v>0.1141561589880867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02263510532166642</v>
+      </c>
+      <c r="H12">
+        <v>0.03840115387903887</v>
+      </c>
+      <c r="I12">
+        <v>0.0007460426560404611</v>
+      </c>
+      <c r="J12">
+        <v>-0.1091081315573502</v>
+      </c>
+      <c r="K12">
+        <v>0.008557004552368623</v>
+      </c>
+      <c r="L12">
+        <v>-0.05338171352407334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.06234185052033698</v>
+        <v>0.04281962939858541</v>
       </c>
       <c r="C13">
-        <v>0.01107677465592011</v>
+        <v>-0.03050900912756939</v>
       </c>
       <c r="D13">
-        <v>0.01131834008240587</v>
+        <v>0.008050004976335548</v>
       </c>
       <c r="E13">
-        <v>-0.03430464713061432</v>
+        <v>-0.02183912025725842</v>
       </c>
       <c r="F13">
-        <v>-0.05697387646957149</v>
+        <v>-0.05030978190427474</v>
       </c>
       <c r="G13">
-        <v>0.02638894174252627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.008988963456294173</v>
+      </c>
+      <c r="H13">
+        <v>-0.008815178466165849</v>
+      </c>
+      <c r="I13">
+        <v>-0.0222346536685359</v>
+      </c>
+      <c r="J13">
+        <v>-0.0012465696370639</v>
+      </c>
+      <c r="K13">
+        <v>-0.0459849817189228</v>
+      </c>
+      <c r="L13">
+        <v>0.01822221832787766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.05081299520232834</v>
+        <v>0.03944723212005302</v>
       </c>
       <c r="C14">
-        <v>0.01021983084935173</v>
+        <v>-0.02585933769592123</v>
       </c>
       <c r="D14">
-        <v>0.0274448387498404</v>
+        <v>0.01551255630293746</v>
       </c>
       <c r="E14">
-        <v>-0.01460158590484511</v>
+        <v>0.01217911246722756</v>
       </c>
       <c r="F14">
-        <v>0.004809582966117322</v>
+        <v>-0.05992207489306153</v>
       </c>
       <c r="G14">
-        <v>0.01801997414419394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.00598087679528383</v>
+      </c>
+      <c r="H14">
+        <v>-0.0270121052372358</v>
+      </c>
+      <c r="I14">
+        <v>-0.00320526989102519</v>
+      </c>
+      <c r="J14">
+        <v>0.04223382368241634</v>
+      </c>
+      <c r="K14">
+        <v>-0.09328328531522219</v>
+      </c>
+      <c r="L14">
+        <v>-0.03834732100601083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.03655356672749355</v>
+        <v>0.02471453547468314</v>
       </c>
       <c r="C15">
-        <v>-0.009295361348832897</v>
+        <v>-0.01447350335446383</v>
       </c>
       <c r="D15">
-        <v>0.01199850257262971</v>
+        <v>-0.005406483654745674</v>
       </c>
       <c r="E15">
-        <v>-0.009937099609383007</v>
+        <v>-0.04757781657404126</v>
       </c>
       <c r="F15">
-        <v>-0.0160441158909417</v>
+        <v>-0.008007998451511716</v>
       </c>
       <c r="G15">
-        <v>0.0009325237402373508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03421751670641553</v>
+      </c>
+      <c r="H15">
+        <v>0.007254323303383155</v>
+      </c>
+      <c r="I15">
+        <v>-0.0008640288779208244</v>
+      </c>
+      <c r="J15">
+        <v>0.055259437826837</v>
+      </c>
+      <c r="K15">
+        <v>-0.06123258087770988</v>
+      </c>
+      <c r="L15">
+        <v>0.01200156834386528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.07471866752779277</v>
+        <v>0.07793383355008904</v>
       </c>
       <c r="C16">
-        <v>0.06972002866249068</v>
+        <v>-0.07285078566155916</v>
       </c>
       <c r="D16">
-        <v>0.01477540734749777</v>
+        <v>0.00207923804429387</v>
       </c>
       <c r="E16">
-        <v>-0.04348679117465813</v>
+        <v>0.0179244874058992</v>
       </c>
       <c r="F16">
-        <v>-0.04871871251866533</v>
+        <v>-0.1254359507050708</v>
       </c>
       <c r="G16">
-        <v>0.09047721360078885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02194559596900396</v>
+      </c>
+      <c r="H16">
+        <v>0.03569016520831847</v>
+      </c>
+      <c r="I16">
+        <v>0.04221380950461853</v>
+      </c>
+      <c r="J16">
+        <v>-0.1109247121554561</v>
+      </c>
+      <c r="K16">
+        <v>0.002007964229812119</v>
+      </c>
+      <c r="L16">
+        <v>-0.04375360931698717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.05259587418264408</v>
+        <v>0.04556376748416464</v>
       </c>
       <c r="C20">
-        <v>0.0269074378407185</v>
+        <v>-0.03594978496542495</v>
       </c>
       <c r="D20">
-        <v>0.007696602214789478</v>
+        <v>0.01391897415241773</v>
       </c>
       <c r="E20">
-        <v>-0.01886845663748968</v>
+        <v>-0.02283210976429579</v>
       </c>
       <c r="F20">
-        <v>-0.01720989289588902</v>
+        <v>-0.06064109562404869</v>
       </c>
       <c r="G20">
-        <v>0.04779130142933488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01205932218139547</v>
+      </c>
+      <c r="H20">
+        <v>0.003040857979339622</v>
+      </c>
+      <c r="I20">
+        <v>-0.02673521304656741</v>
+      </c>
+      <c r="J20">
+        <v>0.00395556021305275</v>
+      </c>
+      <c r="K20">
+        <v>-0.0791266922758336</v>
+      </c>
+      <c r="L20">
+        <v>-0.01541931228848055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.02309526717907664</v>
+        <v>0.02307160613870103</v>
       </c>
       <c r="C21">
-        <v>0.04157634261214752</v>
+        <v>-0.02058562618881613</v>
       </c>
       <c r="D21">
-        <v>-0.007292495122731617</v>
+        <v>0.001973502822374941</v>
       </c>
       <c r="E21">
-        <v>-0.02572041925641873</v>
+        <v>-0.002201111688305365</v>
       </c>
       <c r="F21">
-        <v>0.09836368306677655</v>
+        <v>-0.06500871627665245</v>
       </c>
       <c r="G21">
-        <v>-0.02132907848768377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04112853751405253</v>
+      </c>
+      <c r="H21">
+        <v>0.0996985726584031</v>
+      </c>
+      <c r="I21">
+        <v>-0.04879556872783793</v>
+      </c>
+      <c r="J21">
+        <v>0.05263594212943912</v>
+      </c>
+      <c r="K21">
+        <v>-0.1092209126651414</v>
+      </c>
+      <c r="L21">
+        <v>0.07314504447282882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.03540946525643628</v>
+        <v>0.05059185845051579</v>
       </c>
       <c r="C22">
-        <v>0.02454235176251286</v>
+        <v>-0.02154382163544478</v>
       </c>
       <c r="D22">
-        <v>-0.03368397225096177</v>
+        <v>-0.09385593407637359</v>
       </c>
       <c r="E22">
-        <v>-0.5262814391087877</v>
+        <v>-0.6530150110169952</v>
       </c>
       <c r="F22">
-        <v>-0.2055461247015737</v>
+        <v>0.0594777983562095</v>
       </c>
       <c r="G22">
-        <v>-0.2522841351810469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1356783723200697</v>
+      </c>
+      <c r="H22">
+        <v>0.06267113958987584</v>
+      </c>
+      <c r="I22">
+        <v>-0.01212298864366441</v>
+      </c>
+      <c r="J22">
+        <v>-0.05916662148962799</v>
+      </c>
+      <c r="K22">
+        <v>0.04627663180369119</v>
+      </c>
+      <c r="L22">
+        <v>-0.008000677365083272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.03543454426143381</v>
+        <v>0.05103336231103183</v>
       </c>
       <c r="C23">
-        <v>0.02504064460190281</v>
+        <v>-0.02220129374382054</v>
       </c>
       <c r="D23">
-        <v>-0.03247960084322034</v>
+        <v>-0.09419138230237493</v>
       </c>
       <c r="E23">
-        <v>-0.525738026008142</v>
+        <v>-0.6547761933177557</v>
       </c>
       <c r="F23">
-        <v>-0.2063899602298576</v>
+        <v>0.05675972594770593</v>
       </c>
       <c r="G23">
-        <v>-0.2537063173848453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1362945781559785</v>
+      </c>
+      <c r="H23">
+        <v>0.05959494073958369</v>
+      </c>
+      <c r="I23">
+        <v>-0.01311488950003819</v>
+      </c>
+      <c r="J23">
+        <v>-0.05796900638733835</v>
+      </c>
+      <c r="K23">
+        <v>0.04886048902139492</v>
+      </c>
+      <c r="L23">
+        <v>-0.01018205491411485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.08434920040409402</v>
+        <v>0.08288067812345139</v>
       </c>
       <c r="C24">
-        <v>0.0484867684668015</v>
+        <v>-0.06555538179062764</v>
       </c>
       <c r="D24">
-        <v>0.0149101548117321</v>
+        <v>0.008917174576446561</v>
       </c>
       <c r="E24">
-        <v>-0.04179918590992528</v>
+        <v>0.01455185158298994</v>
       </c>
       <c r="F24">
-        <v>-0.01868899436422402</v>
+        <v>-0.1225911653627662</v>
       </c>
       <c r="G24">
-        <v>0.09478171330521734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.0231894802041955</v>
+      </c>
+      <c r="H24">
+        <v>0.05374421948612106</v>
+      </c>
+      <c r="I24">
+        <v>0.05676501064955079</v>
+      </c>
+      <c r="J24">
+        <v>-0.1006292930563604</v>
+      </c>
+      <c r="K24">
+        <v>0.03154822763850595</v>
+      </c>
+      <c r="L24">
+        <v>-0.04078905884048702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07473893926343568</v>
+        <v>0.07969845026399253</v>
       </c>
       <c r="C25">
-        <v>0.01905810065199785</v>
+        <v>-0.04879024967395947</v>
       </c>
       <c r="D25">
-        <v>0.02260674075755955</v>
+        <v>0.01944405435399775</v>
       </c>
       <c r="E25">
-        <v>-0.03609744739350404</v>
+        <v>0.02596121732932038</v>
       </c>
       <c r="F25">
-        <v>-0.008985172662621908</v>
+        <v>-0.1242755955941639</v>
       </c>
       <c r="G25">
-        <v>0.09195571994342108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02851613638230353</v>
+      </c>
+      <c r="H25">
+        <v>0.03165953520765941</v>
+      </c>
+      <c r="I25">
+        <v>0.03567802250534893</v>
+      </c>
+      <c r="J25">
+        <v>-0.09398797061619821</v>
+      </c>
+      <c r="K25">
+        <v>0.02023723770532825</v>
+      </c>
+      <c r="L25">
+        <v>-0.0583818026265473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.0494222622603144</v>
+        <v>0.04228580131626915</v>
       </c>
       <c r="C26">
-        <v>0.02977175480276901</v>
+        <v>-0.0105446503209654</v>
       </c>
       <c r="D26">
-        <v>0.02740213991294703</v>
+        <v>0.0008046918783133286</v>
       </c>
       <c r="E26">
-        <v>0.003740082001805542</v>
+        <v>-0.00995477723450997</v>
       </c>
       <c r="F26">
-        <v>-0.01895808392008588</v>
+        <v>-0.04407579807177611</v>
       </c>
       <c r="G26">
-        <v>0.003802657248817775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03356268385403687</v>
+      </c>
+      <c r="H26">
+        <v>0.005275978465755845</v>
+      </c>
+      <c r="I26">
+        <v>0.01019095518260924</v>
+      </c>
+      <c r="J26">
+        <v>0.04918720537567713</v>
+      </c>
+      <c r="K26">
+        <v>-0.1028521568723535</v>
+      </c>
+      <c r="L26">
+        <v>0.02333359640691597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.0760193132332469</v>
+        <v>0.1330801725947647</v>
       </c>
       <c r="C28">
-        <v>-0.2883847838797565</v>
+        <v>0.2930517477791165</v>
       </c>
       <c r="D28">
-        <v>0.07565491977571215</v>
+        <v>-0.004739892791142123</v>
       </c>
       <c r="E28">
-        <v>0.02239570040199314</v>
+        <v>0.008180615583197094</v>
       </c>
       <c r="F28">
-        <v>0.04641688837052047</v>
+        <v>-0.01671091995668995</v>
       </c>
       <c r="G28">
-        <v>-0.02221399585556604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.003010683411424458</v>
+      </c>
+      <c r="H28">
+        <v>0.01696557115777478</v>
+      </c>
+      <c r="I28">
+        <v>-0.01356100759918903</v>
+      </c>
+      <c r="J28">
+        <v>-0.01483351040069625</v>
+      </c>
+      <c r="K28">
+        <v>-0.004198666775465589</v>
+      </c>
+      <c r="L28">
+        <v>0.01415251044474836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05487902379767553</v>
+        <v>0.04104966319432812</v>
       </c>
       <c r="C29">
-        <v>0.007608266902119054</v>
+        <v>-0.02596841175429773</v>
       </c>
       <c r="D29">
-        <v>0.01790211572352863</v>
+        <v>0.0270181167959746</v>
       </c>
       <c r="E29">
-        <v>-0.03367742498513701</v>
+        <v>-0.0001170099209923553</v>
       </c>
       <c r="F29">
-        <v>-0.03159731949091274</v>
+        <v>-0.05881684758134255</v>
       </c>
       <c r="G29">
-        <v>-0.002858268034180771</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03310750838908292</v>
+      </c>
+      <c r="H29">
+        <v>-0.009563608461416396</v>
+      </c>
+      <c r="I29">
+        <v>-0.003954154100443971</v>
+      </c>
+      <c r="J29">
+        <v>0.04098464973887053</v>
+      </c>
+      <c r="K29">
+        <v>-0.09448877616279347</v>
+      </c>
+      <c r="L29">
+        <v>-0.02469123945759779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.123289625748974</v>
+        <v>0.1040339839210853</v>
       </c>
       <c r="C30">
-        <v>0.03063761319561329</v>
+        <v>-0.05271421589893178</v>
       </c>
       <c r="D30">
-        <v>0.06273778795076865</v>
+        <v>-0.02446753043200615</v>
       </c>
       <c r="E30">
-        <v>-0.1147666689644973</v>
+        <v>0.01762111864028996</v>
       </c>
       <c r="F30">
-        <v>0.03302982590564189</v>
+        <v>-0.1939801871390068</v>
       </c>
       <c r="G30">
-        <v>0.1636713297371014</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.115038643289758</v>
+      </c>
+      <c r="H30">
+        <v>0.1343223583755269</v>
+      </c>
+      <c r="I30">
+        <v>-0.1842712199329444</v>
+      </c>
+      <c r="J30">
+        <v>-0.1549480910200666</v>
+      </c>
+      <c r="K30">
+        <v>-0.0575343664171701</v>
+      </c>
+      <c r="L30">
+        <v>-0.1426796473245707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05516635901621234</v>
+        <v>0.04067158257532927</v>
       </c>
       <c r="C31">
-        <v>0.01604370514208465</v>
+        <v>-0.04205856013416935</v>
       </c>
       <c r="D31">
-        <v>-0.00681268129340905</v>
+        <v>0.004366827805031473</v>
       </c>
       <c r="E31">
-        <v>-0.008102203978580816</v>
+        <v>-0.004812425210177199</v>
       </c>
       <c r="F31">
-        <v>-0.0251924798586233</v>
+        <v>-0.02236005377735803</v>
       </c>
       <c r="G31">
-        <v>-0.02493241697975279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01528263386580715</v>
+      </c>
+      <c r="H31">
+        <v>-0.03735833958482614</v>
+      </c>
+      <c r="I31">
+        <v>0.02601426864094591</v>
+      </c>
+      <c r="J31">
+        <v>0.005483130177892215</v>
+      </c>
+      <c r="K31">
+        <v>-0.0321469683216332</v>
+      </c>
+      <c r="L31">
+        <v>-0.03568873479745151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.03083664416223041</v>
+        <v>0.0487360290961672</v>
       </c>
       <c r="C32">
-        <v>-0.02435657780271901</v>
+        <v>-0.002939772471082626</v>
       </c>
       <c r="D32">
-        <v>0.00279254561890917</v>
+        <v>-0.02853080509310615</v>
       </c>
       <c r="E32">
-        <v>-0.07863491793634544</v>
+        <v>0.02418571700890813</v>
       </c>
       <c r="F32">
-        <v>-0.08681580133825806</v>
+        <v>-0.07108614633464364</v>
       </c>
       <c r="G32">
-        <v>0.05051123497053051</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01031425954208661</v>
+      </c>
+      <c r="H32">
+        <v>-0.002557697594140571</v>
+      </c>
+      <c r="I32">
+        <v>0.03027572181468784</v>
+      </c>
+      <c r="J32">
+        <v>0.009162293334222429</v>
+      </c>
+      <c r="K32">
+        <v>-0.08187152843248395</v>
+      </c>
+      <c r="L32">
+        <v>-0.01186253081555358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1113018960737905</v>
+        <v>0.09813442958173051</v>
       </c>
       <c r="C33">
-        <v>0.02064794506761679</v>
+        <v>-0.05709940838422485</v>
       </c>
       <c r="D33">
-        <v>-0.007260423477385626</v>
+        <v>0.0001049620202337835</v>
       </c>
       <c r="E33">
-        <v>-0.002428717476902784</v>
+        <v>0.02613982396676924</v>
       </c>
       <c r="F33">
-        <v>-0.05692799031735004</v>
+        <v>-0.0810938923569146</v>
       </c>
       <c r="G33">
-        <v>0.03465385903983029</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.008925194992046966</v>
+      </c>
+      <c r="H33">
+        <v>0.004626264923748974</v>
+      </c>
+      <c r="I33">
+        <v>0.01400649110456245</v>
+      </c>
+      <c r="J33">
+        <v>0.004549672752180528</v>
+      </c>
+      <c r="K33">
+        <v>-0.02405862645971432</v>
+      </c>
+      <c r="L33">
+        <v>-0.03046578177038249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06112409932804136</v>
+        <v>0.0654027879057015</v>
       </c>
       <c r="C34">
-        <v>0.04705465001469224</v>
+        <v>-0.05323944618749279</v>
       </c>
       <c r="D34">
-        <v>0.002936783767001387</v>
+        <v>0.008210338043223967</v>
       </c>
       <c r="E34">
-        <v>-0.02522989144832262</v>
+        <v>0.02350076759483117</v>
       </c>
       <c r="F34">
-        <v>-0.01777289333562065</v>
+        <v>-0.1142392730724715</v>
       </c>
       <c r="G34">
-        <v>0.07549268291441819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01630786197317714</v>
+      </c>
+      <c r="H34">
+        <v>0.02592265247545713</v>
+      </c>
+      <c r="I34">
+        <v>0.03746424309280224</v>
+      </c>
+      <c r="J34">
+        <v>-0.0822851801291689</v>
+      </c>
+      <c r="K34">
+        <v>-0.0318912268585363</v>
+      </c>
+      <c r="L34">
+        <v>-0.03157587682681406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04660890499431199</v>
+        <v>0.02221457726839338</v>
       </c>
       <c r="C35">
-        <v>0.01456046085308188</v>
+        <v>-0.02164287595584497</v>
       </c>
       <c r="D35">
-        <v>-0.01143053386501886</v>
+        <v>0.003862831927980029</v>
       </c>
       <c r="E35">
-        <v>-0.01404244535932261</v>
+        <v>0.006421290181036064</v>
       </c>
       <c r="F35">
-        <v>0.02509312661212239</v>
+        <v>-0.0317777633170991</v>
       </c>
       <c r="G35">
-        <v>0.03577483017720331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.01984134129215455</v>
+      </c>
+      <c r="H35">
+        <v>0.01746307213930252</v>
+      </c>
+      <c r="I35">
+        <v>-0.01647946239643174</v>
+      </c>
+      <c r="J35">
+        <v>-0.03446771993872366</v>
+      </c>
+      <c r="K35">
+        <v>-0.07811642104798011</v>
+      </c>
+      <c r="L35">
+        <v>-0.01099327448020769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03597079695926164</v>
+        <v>0.02681782821545921</v>
       </c>
       <c r="C36">
-        <v>0.005734648714282252</v>
+        <v>-0.01313686450058182</v>
       </c>
       <c r="D36">
-        <v>0.02247338710680489</v>
+        <v>0.001633878875352042</v>
       </c>
       <c r="E36">
-        <v>-0.02868302596007357</v>
+        <v>-0.01131556220018409</v>
       </c>
       <c r="F36">
-        <v>-0.01105233351102432</v>
+        <v>-0.06567433679986062</v>
       </c>
       <c r="G36">
-        <v>0.02397445546305105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01824830806115502</v>
+      </c>
+      <c r="H36">
+        <v>0.01078464748635743</v>
+      </c>
+      <c r="I36">
+        <v>-0.008659702377938387</v>
+      </c>
+      <c r="J36">
+        <v>0.02951235322727201</v>
+      </c>
+      <c r="K36">
+        <v>-0.02864045198869252</v>
+      </c>
+      <c r="L36">
+        <v>-0.02547243246887894</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.05021171750122877</v>
+        <v>0.02491486180382973</v>
       </c>
       <c r="C38">
-        <v>0.01353049755960553</v>
+        <v>-0.03312406607359829</v>
       </c>
       <c r="D38">
-        <v>-0.001266033520801868</v>
+        <v>0.008407517886891357</v>
       </c>
       <c r="E38">
-        <v>-0.02415128340063163</v>
+        <v>-0.01834872011428828</v>
       </c>
       <c r="F38">
-        <v>-0.004633351607765267</v>
+        <v>0.04511006645526586</v>
       </c>
       <c r="G38">
-        <v>0.03936177465354287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.028551785670407</v>
+      </c>
+      <c r="H38">
+        <v>0.005234537217975097</v>
+      </c>
+      <c r="I38">
+        <v>-0.02441071732384941</v>
+      </c>
+      <c r="J38">
+        <v>-0.004068160186977627</v>
+      </c>
+      <c r="K38">
+        <v>-0.04177516628559338</v>
+      </c>
+      <c r="L38">
+        <v>0.06922509676235292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.1070752798992244</v>
+        <v>0.1088359317135718</v>
       </c>
       <c r="C39">
-        <v>0.05689502688374611</v>
+        <v>-0.08334874852424831</v>
       </c>
       <c r="D39">
-        <v>-0.003975213050543366</v>
+        <v>0.006891903243767661</v>
       </c>
       <c r="E39">
-        <v>-0.0450281456352051</v>
+        <v>0.09148366322007995</v>
       </c>
       <c r="F39">
-        <v>-0.02277880817293044</v>
+        <v>-0.1516234461038225</v>
       </c>
       <c r="G39">
-        <v>0.1285874203459724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1043240843167523</v>
+      </c>
+      <c r="H39">
+        <v>0.04702058784933873</v>
+      </c>
+      <c r="I39">
+        <v>0.01173647424496429</v>
+      </c>
+      <c r="J39">
+        <v>-0.2325821109562774</v>
+      </c>
+      <c r="K39">
+        <v>0.0407026707709113</v>
+      </c>
+      <c r="L39">
+        <v>-0.05929270613107761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.05361960083387864</v>
+        <v>0.03265289588684519</v>
       </c>
       <c r="C40">
-        <v>0.02243836959419045</v>
+        <v>-0.05629140735036998</v>
       </c>
       <c r="D40">
-        <v>-0.03227616838921854</v>
+        <v>0.005866042814062862</v>
       </c>
       <c r="E40">
-        <v>-0.1076042787421245</v>
+        <v>-0.03740797128585117</v>
       </c>
       <c r="F40">
-        <v>-0.02764253404278292</v>
+        <v>-0.1052725915640614</v>
       </c>
       <c r="G40">
-        <v>0.1608797785394356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.00456194117812873</v>
+      </c>
+      <c r="H40">
+        <v>0.09281934928952011</v>
+      </c>
+      <c r="I40">
+        <v>-0.0141268992336713</v>
+      </c>
+      <c r="J40">
+        <v>0.03090845893390395</v>
+      </c>
+      <c r="K40">
+        <v>-0.02922644033426019</v>
+      </c>
+      <c r="L40">
+        <v>0.1075359380808957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.04951897558916312</v>
+        <v>0.03565986899963176</v>
       </c>
       <c r="C41">
-        <v>0.03329276609784401</v>
+        <v>-0.03149408423692718</v>
       </c>
       <c r="D41">
-        <v>0.002131425607049859</v>
+        <v>0.01604908588804897</v>
       </c>
       <c r="E41">
-        <v>0.00308867790045794</v>
+        <v>0.01671225829932416</v>
       </c>
       <c r="F41">
-        <v>-0.02525874963400892</v>
+        <v>-0.01847777056429676</v>
       </c>
       <c r="G41">
-        <v>0.04479955176930142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01943258407610774</v>
+      </c>
+      <c r="H41">
+        <v>-0.01213972095145224</v>
+      </c>
+      <c r="I41">
+        <v>-0.004658179918179058</v>
+      </c>
+      <c r="J41">
+        <v>-0.02433062643231911</v>
+      </c>
+      <c r="K41">
+        <v>-0.05469915218430164</v>
+      </c>
+      <c r="L41">
+        <v>0.006633995706080021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.07176577064512833</v>
+        <v>0.05057729719471711</v>
       </c>
       <c r="C43">
-        <v>0.0304530456820672</v>
+        <v>-0.03326693819533699</v>
       </c>
       <c r="D43">
-        <v>0.02475297281259021</v>
+        <v>0.01123213826845691</v>
       </c>
       <c r="E43">
-        <v>-0.02494087137160753</v>
+        <v>-0.01339996260651936</v>
       </c>
       <c r="F43">
-        <v>-0.01423386838466054</v>
+        <v>-0.01004984149770012</v>
       </c>
       <c r="G43">
-        <v>0.01230207708893419</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.04415191929763805</v>
+      </c>
+      <c r="H43">
+        <v>-0.03133336643848108</v>
+      </c>
+      <c r="I43">
+        <v>-0.02663745925982915</v>
+      </c>
+      <c r="J43">
+        <v>-0.04559452896737139</v>
+      </c>
+      <c r="K43">
+        <v>-0.04370698270818113</v>
+      </c>
+      <c r="L43">
+        <v>-0.01899789008996432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.05957797700749848</v>
+        <v>0.1080219068621675</v>
       </c>
       <c r="C44">
-        <v>0.02927023837144418</v>
+        <v>-0.09162921644037655</v>
       </c>
       <c r="D44">
-        <v>0.09488996077908939</v>
+        <v>0.05445389436955363</v>
       </c>
       <c r="E44">
-        <v>-0.06895248848535585</v>
+        <v>-0.09767285114230995</v>
       </c>
       <c r="F44">
-        <v>-0.02965840190131335</v>
+        <v>-0.207851839514912</v>
       </c>
       <c r="G44">
-        <v>0.128354337392274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02720917044711806</v>
+      </c>
+      <c r="H44">
+        <v>0.1277458166443114</v>
+      </c>
+      <c r="I44">
+        <v>0.03546790674473144</v>
+      </c>
+      <c r="J44">
+        <v>0.1382148612302332</v>
+      </c>
+      <c r="K44">
+        <v>-0.1004113473278411</v>
+      </c>
+      <c r="L44">
+        <v>0.1463997962523881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.04332857137136228</v>
+        <v>0.03591929353807843</v>
       </c>
       <c r="C46">
-        <v>0.04334655798338698</v>
+        <v>-0.03172259964894015</v>
       </c>
       <c r="D46">
-        <v>0.01553630017776538</v>
+        <v>0.02504991568928198</v>
       </c>
       <c r="E46">
-        <v>-0.04990330154911024</v>
+        <v>-0.03979284991737357</v>
       </c>
       <c r="F46">
-        <v>-0.02115447860975525</v>
+        <v>-0.03405413508495132</v>
       </c>
       <c r="G46">
-        <v>0.0150164129997468</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01651998153947294</v>
+      </c>
+      <c r="H46">
+        <v>0.03587638036646379</v>
+      </c>
+      <c r="I46">
+        <v>0.03321539471790171</v>
+      </c>
+      <c r="J46">
+        <v>0.02389219434996081</v>
+      </c>
+      <c r="K46">
+        <v>-0.1197474805002364</v>
+      </c>
+      <c r="L46">
+        <v>-0.0532037743293013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.04716735891692254</v>
+        <v>0.04227240714629903</v>
       </c>
       <c r="C47">
-        <v>0.009797365249360744</v>
+        <v>-0.02459567977773934</v>
       </c>
       <c r="D47">
-        <v>0.007247537261413267</v>
+        <v>0.005963465213743292</v>
       </c>
       <c r="E47">
-        <v>-0.07324365541315524</v>
+        <v>-0.01966046448685368</v>
       </c>
       <c r="F47">
-        <v>-0.009712598787550264</v>
+        <v>-0.03779918137983174</v>
       </c>
       <c r="G47">
-        <v>-0.01665581519146653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.001935879417450742</v>
+      </c>
+      <c r="H47">
+        <v>-0.008442376373486313</v>
+      </c>
+      <c r="I47">
+        <v>-0.02535932666028839</v>
+      </c>
+      <c r="J47">
+        <v>0.03058263796964314</v>
+      </c>
+      <c r="K47">
+        <v>-0.05288977413892108</v>
+      </c>
+      <c r="L47">
+        <v>0.005714899720830402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04508086139857173</v>
+        <v>0.04320512346765387</v>
       </c>
       <c r="C48">
-        <v>0.001586446071870506</v>
+        <v>-0.01452331066346831</v>
       </c>
       <c r="D48">
-        <v>-0.004438102545917194</v>
+        <v>0.008593341962136835</v>
       </c>
       <c r="E48">
-        <v>-0.0386287079618995</v>
+        <v>-0.003739960461530625</v>
       </c>
       <c r="F48">
-        <v>-0.02106594881735297</v>
+        <v>-0.06418966279709805</v>
       </c>
       <c r="G48">
-        <v>0.0002143413744610955</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.001999386654107347</v>
+      </c>
+      <c r="H48">
+        <v>0.03922207982798137</v>
+      </c>
+      <c r="I48">
+        <v>0.003586743418571102</v>
+      </c>
+      <c r="J48">
+        <v>0.006667892657779716</v>
+      </c>
+      <c r="K48">
+        <v>-0.04683872846968239</v>
+      </c>
+      <c r="L48">
+        <v>-0.04258390643202566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.2383970758946031</v>
+        <v>0.2262979438157514</v>
       </c>
       <c r="C49">
-        <v>0.1094911196946562</v>
+        <v>-0.05697021411903206</v>
       </c>
       <c r="D49">
-        <v>0.04232378453842189</v>
+        <v>0.08611316259243702</v>
       </c>
       <c r="E49">
-        <v>0.04545651013065888</v>
+        <v>0.03845046853455598</v>
       </c>
       <c r="F49">
-        <v>0.172960844645528</v>
+        <v>0.231336455475216</v>
       </c>
       <c r="G49">
-        <v>-0.02058710257179416</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.08244076002350476</v>
+      </c>
+      <c r="H49">
+        <v>0.1842125643528902</v>
+      </c>
+      <c r="I49">
+        <v>0.01484133166792731</v>
+      </c>
+      <c r="J49">
+        <v>-0.133589567729678</v>
+      </c>
+      <c r="K49">
+        <v>0.1685552937729564</v>
+      </c>
+      <c r="L49">
+        <v>-0.02797381702274861</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.05366566055834299</v>
+        <v>0.04488261984554388</v>
       </c>
       <c r="C50">
-        <v>0.01519130563317794</v>
+        <v>-0.02890863820383508</v>
       </c>
       <c r="D50">
-        <v>-0.008712600461674772</v>
+        <v>0.001435042796646604</v>
       </c>
       <c r="E50">
-        <v>-0.01851553402819726</v>
+        <v>0.001359755450781608</v>
       </c>
       <c r="F50">
-        <v>-0.04733458610150326</v>
+        <v>-0.0425122277455959</v>
       </c>
       <c r="G50">
-        <v>-0.03163991962545353</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03512556502267923</v>
+      </c>
+      <c r="H50">
+        <v>-0.02835364631509618</v>
+      </c>
+      <c r="I50">
+        <v>0.01251957097722058</v>
+      </c>
+      <c r="J50">
+        <v>0.02109617846785632</v>
+      </c>
+      <c r="K50">
+        <v>-0.04207011161683556</v>
+      </c>
+      <c r="L50">
+        <v>-0.04300671321048855</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.03303227276021837</v>
+        <v>0.02379428993807301</v>
       </c>
       <c r="C51">
-        <v>0.01259725764259085</v>
+        <v>-0.000300595350945849</v>
       </c>
       <c r="D51">
-        <v>0.009885050981305519</v>
+        <v>0.01604812183777374</v>
       </c>
       <c r="E51">
-        <v>0.001860353646982518</v>
+        <v>-0.002140099398225882</v>
       </c>
       <c r="F51">
-        <v>-0.0009887558875958961</v>
+        <v>0.02144055758343283</v>
       </c>
       <c r="G51">
-        <v>0.01132255933700732</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0108465915640873</v>
+      </c>
+      <c r="H51">
+        <v>-0.008185030247566658</v>
+      </c>
+      <c r="I51">
+        <v>-0.01026749916850692</v>
+      </c>
+      <c r="J51">
+        <v>-0.05268210604747731</v>
+      </c>
+      <c r="K51">
+        <v>0.02923880279216991</v>
+      </c>
+      <c r="L51">
+        <v>-0.009216699005008405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.05450330290039207</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.0268018151426206</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0008626203616934326</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.004524038621192426</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01934372888144538</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.07895833296846008</v>
+      </c>
+      <c r="H52">
+        <v>-0.03163693405572473</v>
+      </c>
+      <c r="I52">
+        <v>0.05048467559236754</v>
+      </c>
+      <c r="J52">
+        <v>0.04928415822083122</v>
+      </c>
+      <c r="K52">
+        <v>0.03947457816430399</v>
+      </c>
+      <c r="L52">
+        <v>-0.004735513278715088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1602507184974264</v>
+        <v>0.1604544308801243</v>
       </c>
       <c r="C53">
-        <v>0.009725755848550502</v>
+        <v>-0.03816589276659084</v>
       </c>
       <c r="D53">
-        <v>0.01127272416233007</v>
+        <v>0.0223453789373899</v>
       </c>
       <c r="E53">
-        <v>0.10856814493116</v>
+        <v>0.001128425293648124</v>
       </c>
       <c r="F53">
-        <v>-0.2143674517962431</v>
+        <v>0.07262222022462846</v>
       </c>
       <c r="G53">
-        <v>-0.0295891717358456</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.1463748589940358</v>
+      </c>
+      <c r="H53">
+        <v>-0.1938977789110558</v>
+      </c>
+      <c r="I53">
+        <v>0.1407817711699051</v>
+      </c>
+      <c r="J53">
+        <v>0.103992146464015</v>
+      </c>
+      <c r="K53">
+        <v>0.04860551555718798</v>
+      </c>
+      <c r="L53">
+        <v>-0.005982603400858555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.0498887600540053</v>
+        <v>0.05513318020399474</v>
       </c>
       <c r="C54">
-        <v>0.007140316225499104</v>
+        <v>-0.04164676308032982</v>
       </c>
       <c r="D54">
-        <v>0.02272346236030911</v>
+        <v>0.01170907131012383</v>
       </c>
       <c r="E54">
-        <v>-0.05344605329980123</v>
+        <v>-0.01669885046901606</v>
       </c>
       <c r="F54">
-        <v>-0.02679071611811517</v>
+        <v>-0.1268278240638111</v>
       </c>
       <c r="G54">
-        <v>0.05215689905642126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02537257160640974</v>
+      </c>
+      <c r="H54">
+        <v>-0.02463331091619899</v>
+      </c>
+      <c r="I54">
+        <v>-0.03952841046276448</v>
+      </c>
+      <c r="J54">
+        <v>0.06798809020746797</v>
+      </c>
+      <c r="K54">
+        <v>-0.1385968921242855</v>
+      </c>
+      <c r="L54">
+        <v>-0.01201691430049937</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.0936176983738691</v>
+        <v>0.08900617546700572</v>
       </c>
       <c r="C55">
-        <v>0.007713799826212842</v>
+        <v>-0.03660005649369029</v>
       </c>
       <c r="D55">
-        <v>0.01587155504062345</v>
+        <v>0.01804161872920855</v>
       </c>
       <c r="E55">
-        <v>0.02631911598467879</v>
+        <v>0.01948346127240306</v>
       </c>
       <c r="F55">
-        <v>-0.1835274273949742</v>
+        <v>-0.003417805768167928</v>
       </c>
       <c r="G55">
-        <v>-0.01271387931224607</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.07165158546476123</v>
+      </c>
+      <c r="H55">
+        <v>-0.1282041569261474</v>
+      </c>
+      <c r="I55">
+        <v>0.09938790203164181</v>
+      </c>
+      <c r="J55">
+        <v>0.04460519189607198</v>
+      </c>
+      <c r="K55">
+        <v>0.001885270839733967</v>
+      </c>
+      <c r="L55">
+        <v>-0.004811749201233107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1602656093780243</v>
+        <v>0.1565506166530352</v>
       </c>
       <c r="C56">
-        <v>-8.339033872876837e-05</v>
+        <v>-0.05738433753690831</v>
       </c>
       <c r="D56">
-        <v>0.006746523793982727</v>
+        <v>0.04452514674351418</v>
       </c>
       <c r="E56">
-        <v>0.09948916074480489</v>
+        <v>0.01670840994256437</v>
       </c>
       <c r="F56">
-        <v>-0.2208505981559523</v>
+        <v>0.04260043740199979</v>
       </c>
       <c r="G56">
-        <v>-0.06236082812535125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1355300290768212</v>
+      </c>
+      <c r="H56">
+        <v>-0.1690856518019073</v>
+      </c>
+      <c r="I56">
+        <v>0.1453141893315297</v>
+      </c>
+      <c r="J56">
+        <v>0.07704258299718984</v>
+      </c>
+      <c r="K56">
+        <v>0.03846080764143172</v>
+      </c>
+      <c r="L56">
+        <v>0.02611777503030852</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.03040889017975178</v>
+        <v>0.04740894111318279</v>
       </c>
       <c r="C58">
-        <v>0.0494009576704376</v>
+        <v>-0.04413947884599732</v>
       </c>
       <c r="D58">
-        <v>-0.04116815145466877</v>
+        <v>-0.01296666016306696</v>
       </c>
       <c r="E58">
-        <v>-0.3815740807344989</v>
+        <v>-0.08582609663219794</v>
       </c>
       <c r="F58">
-        <v>0.3776300430395028</v>
+        <v>-0.02290885914615327</v>
       </c>
       <c r="G58">
-        <v>-0.03091860658203674</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.02489752125434724</v>
+      </c>
+      <c r="H58">
+        <v>0.1399545586333151</v>
+      </c>
+      <c r="I58">
+        <v>-0.07604643076704028</v>
+      </c>
+      <c r="J58">
+        <v>-0.1604949736896414</v>
+      </c>
+      <c r="K58">
+        <v>-0.1337932576884665</v>
+      </c>
+      <c r="L58">
+        <v>-0.3048950573441156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1686622160069911</v>
+        <v>0.2058437256321472</v>
       </c>
       <c r="C59">
-        <v>-0.4028120706717086</v>
+        <v>0.299530295377671</v>
       </c>
       <c r="D59">
-        <v>0.09988022840932193</v>
+        <v>0.0172044435784602</v>
       </c>
       <c r="E59">
-        <v>0.02731374198127797</v>
+        <v>0.04342030880712223</v>
       </c>
       <c r="F59">
-        <v>-0.037523745620926</v>
+        <v>-0.0300671906881975</v>
       </c>
       <c r="G59">
-        <v>0.05181475003443783</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.04063111162313667</v>
+      </c>
+      <c r="H59">
+        <v>-0.1088150640242694</v>
+      </c>
+      <c r="I59">
+        <v>0.0483750922916823</v>
+      </c>
+      <c r="J59">
+        <v>-0.03870558752830214</v>
+      </c>
+      <c r="K59">
+        <v>0.05615887683046708</v>
+      </c>
+      <c r="L59">
+        <v>0.1002130857995816</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.268161046357615</v>
+        <v>0.2402694098301559</v>
       </c>
       <c r="C60">
-        <v>0.07653447232530909</v>
+        <v>-0.100125041722777</v>
       </c>
       <c r="D60">
-        <v>0.07644275863777411</v>
+        <v>0.1091708656166537</v>
       </c>
       <c r="E60">
-        <v>0.04621372668225697</v>
+        <v>0.03950019960043798</v>
       </c>
       <c r="F60">
-        <v>0.07773510721877855</v>
+        <v>0.1351028608867737</v>
       </c>
       <c r="G60">
-        <v>-0.1137358954306814</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.01055657698989761</v>
+      </c>
+      <c r="H60">
+        <v>0.06249594656189881</v>
+      </c>
+      <c r="I60">
+        <v>-0.07026321667994877</v>
+      </c>
+      <c r="J60">
+        <v>0.0708376915161805</v>
+      </c>
+      <c r="K60">
+        <v>0.2551253521692171</v>
+      </c>
+      <c r="L60">
+        <v>-0.08021765434420167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.09089499203118381</v>
+        <v>0.1006984159738365</v>
       </c>
       <c r="C61">
-        <v>0.02814220833241722</v>
+        <v>-0.04851997382577815</v>
       </c>
       <c r="D61">
-        <v>0.0003239756980849575</v>
+        <v>0.02206629437851004</v>
       </c>
       <c r="E61">
-        <v>-9.96146634792519e-05</v>
+        <v>0.04981734747293721</v>
       </c>
       <c r="F61">
-        <v>-0.01654222568641354</v>
+        <v>-0.1278387125407659</v>
       </c>
       <c r="G61">
-        <v>0.04692158344640773</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.08069246353407615</v>
+      </c>
+      <c r="H61">
+        <v>-0.008631215407932253</v>
+      </c>
+      <c r="I61">
+        <v>0.03016208581803579</v>
+      </c>
+      <c r="J61">
+        <v>-0.1333737499451182</v>
+      </c>
+      <c r="K61">
+        <v>-0.02761894074193883</v>
+      </c>
+      <c r="L61">
+        <v>-0.04166844703869065</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1447641309958893</v>
+        <v>0.1483172922382921</v>
       </c>
       <c r="C62">
-        <v>0.02281925580932154</v>
+        <v>-0.05561207811219008</v>
       </c>
       <c r="D62">
-        <v>-0.02843071454601493</v>
+        <v>0.0191004781131465</v>
       </c>
       <c r="E62">
-        <v>0.1617773289786507</v>
+        <v>0.02320949882317601</v>
       </c>
       <c r="F62">
-        <v>-0.220869011062824</v>
+        <v>0.05823159515975632</v>
       </c>
       <c r="G62">
-        <v>-0.004274257878518093</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.1116624449684592</v>
+      </c>
+      <c r="H62">
+        <v>-0.144594177635516</v>
+      </c>
+      <c r="I62">
+        <v>0.1626224973818192</v>
+      </c>
+      <c r="J62">
+        <v>0.1365468573385757</v>
+      </c>
+      <c r="K62">
+        <v>0.01236405119526357</v>
+      </c>
+      <c r="L62">
+        <v>0.02259455307076381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.04195306505248189</v>
+        <v>0.04400075751435959</v>
       </c>
       <c r="C63">
-        <v>0.01739966041155253</v>
+        <v>-0.02246705510303112</v>
       </c>
       <c r="D63">
-        <v>-0.005829676029514409</v>
+        <v>-0.01662568357011707</v>
       </c>
       <c r="E63">
-        <v>-0.00322617824161185</v>
+        <v>0.01110412715708327</v>
       </c>
       <c r="F63">
-        <v>-0.01355555270416712</v>
+        <v>-0.06075098672493719</v>
       </c>
       <c r="G63">
-        <v>0.0148979590689922</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.004969697792648196</v>
+      </c>
+      <c r="H63">
+        <v>-0.000369050610742205</v>
+      </c>
+      <c r="I63">
+        <v>-0.0005878692629330868</v>
+      </c>
+      <c r="J63">
+        <v>-0.01474343507594398</v>
+      </c>
+      <c r="K63">
+        <v>-0.03822312519094344</v>
+      </c>
+      <c r="L63">
+        <v>-0.05052868684280737</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.1033927002054603</v>
+        <v>0.0953720404471627</v>
       </c>
       <c r="C64">
-        <v>0.02129214421399655</v>
+        <v>-0.04070180406085006</v>
       </c>
       <c r="D64">
-        <v>0.03925536828018888</v>
+        <v>0.04914566412963248</v>
       </c>
       <c r="E64">
-        <v>-0.03703237394121683</v>
+        <v>-0.01614074261125467</v>
       </c>
       <c r="F64">
-        <v>0.01668214072496396</v>
+        <v>-0.08028924525022831</v>
       </c>
       <c r="G64">
-        <v>0.04551361036126856</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02893402237389342</v>
+      </c>
+      <c r="H64">
+        <v>0.05093443054012693</v>
+      </c>
+      <c r="I64">
+        <v>-0.09258580209820796</v>
+      </c>
+      <c r="J64">
+        <v>-0.04454601522698732</v>
+      </c>
+      <c r="K64">
+        <v>0.01482472303697512</v>
+      </c>
+      <c r="L64">
+        <v>-0.005565542349171617</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.12066715336906</v>
+        <v>0.124874688050028</v>
       </c>
       <c r="C65">
-        <v>0.04514366603491585</v>
+        <v>-0.05152172096793504</v>
       </c>
       <c r="D65">
-        <v>0.0182348210187597</v>
+        <v>-0.01493989902212908</v>
       </c>
       <c r="E65">
-        <v>-0.06740583070737434</v>
+        <v>0.01537289926307323</v>
       </c>
       <c r="F65">
-        <v>0.20698144172092</v>
+        <v>0.01240803691508909</v>
       </c>
       <c r="G65">
-        <v>-0.2300462847924722</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.05335037634220834</v>
+      </c>
+      <c r="H65">
+        <v>0.02712722978330191</v>
+      </c>
+      <c r="I65">
+        <v>-0.351061882571585</v>
+      </c>
+      <c r="J65">
+        <v>0.4448777453263738</v>
+      </c>
+      <c r="K65">
+        <v>0.1514984824733444</v>
+      </c>
+      <c r="L65">
+        <v>-0.4010996010368681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1604547092232254</v>
+        <v>0.1386542509160177</v>
       </c>
       <c r="C66">
-        <v>0.06556110002034056</v>
+        <v>-0.1099903706332731</v>
       </c>
       <c r="D66">
-        <v>-0.02110402951678637</v>
+        <v>0.008777571433288748</v>
       </c>
       <c r="E66">
-        <v>0.01320142938649805</v>
+        <v>0.1103720044806851</v>
       </c>
       <c r="F66">
-        <v>-0.03306018455353543</v>
+        <v>-0.1430712707689729</v>
       </c>
       <c r="G66">
-        <v>0.2621322921698258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1325985149839736</v>
+      </c>
+      <c r="H66">
+        <v>0.06780272647285041</v>
+      </c>
+      <c r="I66">
+        <v>0.06081236736830864</v>
+      </c>
+      <c r="J66">
+        <v>-0.2383711935145715</v>
+      </c>
+      <c r="K66">
+        <v>0.1058858927867582</v>
+      </c>
+      <c r="L66">
+        <v>-0.01593475574184066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09830851839887253</v>
+        <v>0.06977652481090228</v>
       </c>
       <c r="C67">
-        <v>0.03052768066309983</v>
+        <v>-0.04204281049884783</v>
       </c>
       <c r="D67">
-        <v>0.01753676472422805</v>
+        <v>0.007231053960793926</v>
       </c>
       <c r="E67">
-        <v>-0.005065438879580188</v>
+        <v>-0.01955559943582376</v>
       </c>
       <c r="F67">
-        <v>-0.006695711838056089</v>
+        <v>0.02090608533426518</v>
       </c>
       <c r="G67">
-        <v>0.0400530150137204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.019069524382599</v>
+      </c>
+      <c r="H67">
+        <v>-0.008106517357348509</v>
+      </c>
+      <c r="I67">
+        <v>-0.05933933831655903</v>
+      </c>
+      <c r="J67">
+        <v>-0.03799399460829871</v>
+      </c>
+      <c r="K67">
+        <v>0.01393611202493703</v>
+      </c>
+      <c r="L67">
+        <v>0.1169679404792238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.05433047854794813</v>
+        <v>0.1079590835600189</v>
       </c>
       <c r="C68">
-        <v>-0.2911256246927432</v>
+        <v>0.279185411252963</v>
       </c>
       <c r="D68">
-        <v>0.04184868904684447</v>
+        <v>-0.02377327676765481</v>
       </c>
       <c r="E68">
-        <v>-0.005379042360151144</v>
+        <v>0.01338423069616754</v>
       </c>
       <c r="F68">
-        <v>-0.001991162112726243</v>
+        <v>-0.04181504688418394</v>
       </c>
       <c r="G68">
-        <v>-0.03479888492106632</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01257177306701139</v>
+      </c>
+      <c r="H68">
+        <v>-0.01980331461759042</v>
+      </c>
+      <c r="I68">
+        <v>-0.01902040535954124</v>
+      </c>
+      <c r="J68">
+        <v>0.02398203827283642</v>
+      </c>
+      <c r="K68">
+        <v>-0.009769020393418419</v>
+      </c>
+      <c r="L68">
+        <v>-0.05821602759495604</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.04454294715638792</v>
+        <v>0.04191307499852268</v>
       </c>
       <c r="C69">
-        <v>0.01577055979342334</v>
+        <v>-0.007080228681279383</v>
       </c>
       <c r="D69">
-        <v>0.006277720502449398</v>
+        <v>0.0124665304533886</v>
       </c>
       <c r="E69">
-        <v>-0.01079924552384848</v>
+        <v>-0.004732610968974461</v>
       </c>
       <c r="F69">
-        <v>-0.023534333103788</v>
+        <v>-0.01527232661127829</v>
       </c>
       <c r="G69">
-        <v>0.0298202222473776</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.03838226251125781</v>
+      </c>
+      <c r="H69">
+        <v>-0.02106452358520895</v>
+      </c>
+      <c r="I69">
+        <v>-0.01539588416895389</v>
+      </c>
+      <c r="J69">
+        <v>0.007120824272641507</v>
+      </c>
+      <c r="K69">
+        <v>-0.02271876418956638</v>
+      </c>
+      <c r="L69">
+        <v>0.003764947327697627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.07462492092226131</v>
+        <v>0.04944220552693948</v>
       </c>
       <c r="C70">
-        <v>0.007986504835772474</v>
+        <v>-0.01514205909643867</v>
       </c>
       <c r="D70">
-        <v>0.03915549676834897</v>
+        <v>0.03434240306808939</v>
       </c>
       <c r="E70">
-        <v>0.01109587770919709</v>
+        <v>0.02471903372940979</v>
       </c>
       <c r="F70">
-        <v>0.09459271360409596</v>
+        <v>-0.01874181715972534</v>
       </c>
       <c r="G70">
-        <v>-0.03665880090902117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.01395365418628454</v>
+      </c>
+      <c r="H70">
+        <v>0.02330569668103855</v>
+      </c>
+      <c r="I70">
+        <v>-0.1351155438893699</v>
+      </c>
+      <c r="J70">
+        <v>0.07649181089602272</v>
+      </c>
+      <c r="K70">
+        <v>-0.2939943471002323</v>
+      </c>
+      <c r="L70">
+        <v>0.1146831527066259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.06262428897631608</v>
+        <v>0.1236007239533069</v>
       </c>
       <c r="C71">
-        <v>-0.2844564039174127</v>
+        <v>0.2858419996540423</v>
       </c>
       <c r="D71">
-        <v>0.06630952746913094</v>
+        <v>0.007702213518878048</v>
       </c>
       <c r="E71">
-        <v>-0.002399680703323415</v>
+        <v>0.0009336743546191635</v>
       </c>
       <c r="F71">
-        <v>0.009835910671944687</v>
+        <v>-0.05228403107809077</v>
       </c>
       <c r="G71">
-        <v>-0.01041456540118165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04038417627188583</v>
+      </c>
+      <c r="H71">
+        <v>0.008853599902023557</v>
+      </c>
+      <c r="I71">
+        <v>-0.01839433795569636</v>
+      </c>
+      <c r="J71">
+        <v>-0.007192654661659127</v>
+      </c>
+      <c r="K71">
+        <v>0.008417604447492753</v>
+      </c>
+      <c r="L71">
+        <v>-0.03265720355505233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1577695295519068</v>
+        <v>0.1490622852447657</v>
       </c>
       <c r="C72">
-        <v>-0.03804755436922239</v>
+        <v>-0.0195633565395597</v>
       </c>
       <c r="D72">
-        <v>-0.2340461598015922</v>
+        <v>-0.09269844023690538</v>
       </c>
       <c r="E72">
-        <v>0.03055059895546134</v>
+        <v>0.0300679364295493</v>
       </c>
       <c r="F72">
-        <v>-0.04007549271289698</v>
+        <v>-0.002308227249649014</v>
       </c>
       <c r="G72">
-        <v>0.06178177509465763</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.07079970245414004</v>
+      </c>
+      <c r="H72">
+        <v>-0.03184954900130647</v>
+      </c>
+      <c r="I72">
+        <v>0.01679973798303064</v>
+      </c>
+      <c r="J72">
+        <v>0.1169170823711365</v>
+      </c>
+      <c r="K72">
+        <v>0.1148590761916055</v>
+      </c>
+      <c r="L72">
+        <v>-0.001424448508403205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2936674099179082</v>
+        <v>0.2397353330114441</v>
       </c>
       <c r="C73">
-        <v>0.1756917503585664</v>
+        <v>-0.1229025354369133</v>
       </c>
       <c r="D73">
-        <v>0.06198689316952898</v>
+        <v>0.1599938582741613</v>
       </c>
       <c r="E73">
-        <v>0.08980084160177947</v>
+        <v>0.1071421810994518</v>
       </c>
       <c r="F73">
-        <v>0.2980487340116118</v>
+        <v>0.4347177389999003</v>
       </c>
       <c r="G73">
-        <v>-0.124457614809206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.01302742254442177</v>
+      </c>
+      <c r="H73">
+        <v>0.2424353926328696</v>
+      </c>
+      <c r="I73">
+        <v>-0.1342935022604965</v>
+      </c>
+      <c r="J73">
+        <v>-0.2725538535403513</v>
+      </c>
+      <c r="K73">
+        <v>0.1926932861773795</v>
+      </c>
+      <c r="L73">
+        <v>-0.02872873737174129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.0954069930997202</v>
+        <v>0.1094540056161576</v>
       </c>
       <c r="C74">
-        <v>0.03517909739907761</v>
+        <v>-0.0723863933475344</v>
       </c>
       <c r="D74">
-        <v>0.000220042986929255</v>
+        <v>0.008602554169986452</v>
       </c>
       <c r="E74">
-        <v>0.03263169950425188</v>
+        <v>0.006286279065920628</v>
       </c>
       <c r="F74">
-        <v>-0.09515217667179396</v>
+        <v>0.04618679475647339</v>
       </c>
       <c r="G74">
-        <v>-0.03802739594317662</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.1229277954583403</v>
+      </c>
+      <c r="H74">
+        <v>-0.08221859698091603</v>
+      </c>
+      <c r="I74">
+        <v>0.06955771884024442</v>
+      </c>
+      <c r="J74">
+        <v>0.03597871784524345</v>
+      </c>
+      <c r="K74">
+        <v>0.007139724212706485</v>
+      </c>
+      <c r="L74">
+        <v>0.001428452183758006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.09378214320639372</v>
+        <v>0.1015611504824345</v>
       </c>
       <c r="C75">
-        <v>0.006796142384609271</v>
+        <v>-0.04823508968869603</v>
       </c>
       <c r="D75">
-        <v>-0.01310638426071113</v>
+        <v>0.001381691155666697</v>
       </c>
       <c r="E75">
-        <v>0.03436358414311245</v>
+        <v>0.005158972979448637</v>
       </c>
       <c r="F75">
-        <v>-0.1157574371302482</v>
+        <v>0.03740191764201712</v>
       </c>
       <c r="G75">
-        <v>-0.04791256729659957</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.04158797066341441</v>
+      </c>
+      <c r="H75">
+        <v>-0.1148679961015627</v>
+      </c>
+      <c r="I75">
+        <v>0.07966262152219</v>
+      </c>
+      <c r="J75">
+        <v>0.04813696225064132</v>
+      </c>
+      <c r="K75">
+        <v>0.01435441233733346</v>
+      </c>
+      <c r="L75">
+        <v>0.006936695348647036</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1347586798399566</v>
+        <v>0.06749394166329972</v>
       </c>
       <c r="C76">
-        <v>0.03910689957696807</v>
+        <v>-0.03865530677923518</v>
       </c>
       <c r="D76">
-        <v>0.006951385682380989</v>
+        <v>0.02714757761157066</v>
       </c>
       <c r="E76">
-        <v>0.03773277198010293</v>
+        <v>-0.002073489021521528</v>
       </c>
       <c r="F76">
-        <v>-0.2234368382924554</v>
+        <v>0.06962788855949778</v>
       </c>
       <c r="G76">
-        <v>-0.07949650963425842</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04799916420176851</v>
+      </c>
+      <c r="H76">
+        <v>-0.158580165981532</v>
+      </c>
+      <c r="I76">
+        <v>0.08258872729284011</v>
+      </c>
+      <c r="J76">
+        <v>-0.003297606243273704</v>
+      </c>
+      <c r="K76">
+        <v>-0.0310633296733417</v>
+      </c>
+      <c r="L76">
+        <v>4.109509922483218e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.07985387822320034</v>
+        <v>0.07278360173691541</v>
       </c>
       <c r="C77">
-        <v>0.01226113178175035</v>
+        <v>-0.03443285433392559</v>
       </c>
       <c r="D77">
-        <v>0.03056437346052853</v>
+        <v>0.03701338066364464</v>
       </c>
       <c r="E77">
-        <v>-0.1287383396711158</v>
+        <v>0.007344566230402785</v>
       </c>
       <c r="F77">
-        <v>0.1482069154494699</v>
+        <v>-0.287644006004362</v>
       </c>
       <c r="G77">
-        <v>0.5618906198787494</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03991997131411985</v>
+      </c>
+      <c r="H77">
+        <v>0.06112062874594162</v>
+      </c>
+      <c r="I77">
+        <v>-0.2415189396333429</v>
+      </c>
+      <c r="J77">
+        <v>0.01975225320704839</v>
+      </c>
+      <c r="K77">
+        <v>0.4130576548821095</v>
+      </c>
+      <c r="L77">
+        <v>0.5393121467706178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.2001007765390638</v>
+        <v>0.1573116067535737</v>
       </c>
       <c r="C78">
-        <v>0.06317548170837912</v>
+        <v>-0.1078244571669849</v>
       </c>
       <c r="D78">
-        <v>0.0531849323630615</v>
+        <v>-0.04800451885187672</v>
       </c>
       <c r="E78">
-        <v>-0.2095048994030921</v>
+        <v>-0.1786497195499628</v>
       </c>
       <c r="F78">
-        <v>-0.03823089811220908</v>
+        <v>-0.152855377276403</v>
       </c>
       <c r="G78">
-        <v>0.05240568043067567</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.7465610646607282</v>
+      </c>
+      <c r="H78">
+        <v>-0.4322301276392886</v>
+      </c>
+      <c r="I78">
+        <v>0.07855208134124185</v>
+      </c>
+      <c r="J78">
+        <v>-0.1787924554113846</v>
+      </c>
+      <c r="K78">
+        <v>0.1450255191264128</v>
+      </c>
+      <c r="L78">
+        <v>-0.09001591121541831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1377172981203901</v>
+        <v>0.1352003533159761</v>
       </c>
       <c r="C79">
-        <v>0.01768679896159066</v>
+        <v>-0.0558957596780935</v>
       </c>
       <c r="D79">
-        <v>-0.006222999068246753</v>
+        <v>0.01683098554145544</v>
       </c>
       <c r="E79">
-        <v>0.04689235296729038</v>
+        <v>-0.003912665973348634</v>
       </c>
       <c r="F79">
-        <v>-0.1668619910193394</v>
+        <v>0.00619669489636902</v>
       </c>
       <c r="G79">
-        <v>-0.003785525443501082</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.1101915059265376</v>
+      </c>
+      <c r="H79">
+        <v>-0.1144133741331071</v>
+      </c>
+      <c r="I79">
+        <v>0.1099167698218078</v>
+      </c>
+      <c r="J79">
+        <v>0.07474621879078115</v>
+      </c>
+      <c r="K79">
+        <v>0.01977283466001574</v>
+      </c>
+      <c r="L79">
+        <v>4.829438419207635e-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03585258136531502</v>
+        <v>0.05995686683454425</v>
       </c>
       <c r="C80">
-        <v>0.01285085998022342</v>
+        <v>-0.02874616426297632</v>
       </c>
       <c r="D80">
-        <v>0.005581792998067881</v>
+        <v>0.02246692276936793</v>
       </c>
       <c r="E80">
-        <v>0.04694063825821601</v>
+        <v>0.06567802079894304</v>
       </c>
       <c r="F80">
-        <v>0.0382628948763472</v>
+        <v>-0.02249439226620148</v>
       </c>
       <c r="G80">
-        <v>0.007873786709522351</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.002051358064862875</v>
+      </c>
+      <c r="H80">
+        <v>-0.07153896958951328</v>
+      </c>
+      <c r="I80">
+        <v>-0.08299438148672324</v>
+      </c>
+      <c r="J80">
+        <v>-0.01580976744779375</v>
+      </c>
+      <c r="K80">
+        <v>-0.1724956000004669</v>
+      </c>
+      <c r="L80">
+        <v>-0.1208003759002665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.107558131571303</v>
+        <v>0.1264082268639447</v>
       </c>
       <c r="C81">
-        <v>0.02010465553524914</v>
+        <v>-0.06034775980702216</v>
       </c>
       <c r="D81">
-        <v>0.009785126660845989</v>
+        <v>0.0241475434780898</v>
       </c>
       <c r="E81">
-        <v>0.05401331732640815</v>
+        <v>-0.005309531855864587</v>
       </c>
       <c r="F81">
-        <v>-0.1315702943629922</v>
+        <v>-0.001448885634562138</v>
       </c>
       <c r="G81">
-        <v>-0.0252937742936173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07070950381061428</v>
+      </c>
+      <c r="H81">
+        <v>-0.07558608706680285</v>
+      </c>
+      <c r="I81">
+        <v>0.1079712842644565</v>
+      </c>
+      <c r="J81">
+        <v>0.04742814807089496</v>
+      </c>
+      <c r="K81">
+        <v>0.003469494037005391</v>
+      </c>
+      <c r="L81">
+        <v>0.01251052517162926</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1087774551081483</v>
+        <v>0.1335402223663883</v>
       </c>
       <c r="C82">
-        <v>0.02458966144692834</v>
+        <v>-0.04440572042901922</v>
       </c>
       <c r="D82">
-        <v>0.05583027275592192</v>
+        <v>0.04221932485491298</v>
       </c>
       <c r="E82">
-        <v>0.09505015177996276</v>
+        <v>0.01217225985063212</v>
       </c>
       <c r="F82">
-        <v>-0.2289274682775601</v>
+        <v>0.04842804002769317</v>
       </c>
       <c r="G82">
-        <v>-0.0006288900285620757</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.1558867741622428</v>
+      </c>
+      <c r="H82">
+        <v>-0.1544169269127473</v>
+      </c>
+      <c r="I82">
+        <v>0.1848193175620974</v>
+      </c>
+      <c r="J82">
+        <v>0.05440229137994169</v>
+      </c>
+      <c r="K82">
+        <v>-0.06925947074050809</v>
+      </c>
+      <c r="L82">
+        <v>0.06254483419259976</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.09991122433028897</v>
+        <v>0.09396927588056116</v>
       </c>
       <c r="C83">
-        <v>0.06332803593130373</v>
+        <v>-0.1142124153381489</v>
       </c>
       <c r="D83">
-        <v>0.05451688318466203</v>
+        <v>0.02102323839478164</v>
       </c>
       <c r="E83">
-        <v>-0.009360949569269684</v>
+        <v>0.01042297575932394</v>
       </c>
       <c r="F83">
-        <v>0.06529035508713291</v>
+        <v>-0.08442747367265781</v>
       </c>
       <c r="G83">
-        <v>0.05587153344404989</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.02092396693298722</v>
+      </c>
+      <c r="H83">
+        <v>-0.0609503799544067</v>
+      </c>
+      <c r="I83">
+        <v>-0.1488659276015003</v>
+      </c>
+      <c r="J83">
+        <v>-0.01994630042328997</v>
+      </c>
+      <c r="K83">
+        <v>-0.171495167905466</v>
+      </c>
+      <c r="L83">
+        <v>0.09365318285537762</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.05522418119551892</v>
+        <v>0.05135703267274563</v>
       </c>
       <c r="C84">
-        <v>0.03095752263215309</v>
+        <v>0.04033236310880201</v>
       </c>
       <c r="D84">
-        <v>-0.05202766595420511</v>
+        <v>0.004454816024927671</v>
       </c>
       <c r="E84">
-        <v>-0.003670067034328666</v>
+        <v>0.01957057037953389</v>
       </c>
       <c r="F84">
-        <v>-0.03736516568169915</v>
+        <v>0.02470560061036638</v>
       </c>
       <c r="G84">
-        <v>-0.120862815812434</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.1723162099059084</v>
+      </c>
+      <c r="H84">
+        <v>0.1814725687549453</v>
+      </c>
+      <c r="I84">
+        <v>0.240622865255319</v>
+      </c>
+      <c r="J84">
+        <v>-0.2057550850039961</v>
+      </c>
+      <c r="K84">
+        <v>-0.1515873940401929</v>
+      </c>
+      <c r="L84">
+        <v>-0.1416249966220177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.09942887486873903</v>
+        <v>0.113810201678661</v>
       </c>
       <c r="C85">
-        <v>0.02745261656739323</v>
+        <v>-0.04442795675198267</v>
       </c>
       <c r="D85">
-        <v>0.02313455624350528</v>
+        <v>0.04616251022166931</v>
       </c>
       <c r="E85">
-        <v>0.05057248777044341</v>
+        <v>0.0004721339011653848</v>
       </c>
       <c r="F85">
-        <v>-0.191136904587569</v>
+        <v>0.004677406219308076</v>
       </c>
       <c r="G85">
-        <v>0.01066422636642463</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.09996933325996679</v>
+      </c>
+      <c r="H85">
+        <v>-0.119091725977364</v>
+      </c>
+      <c r="I85">
+        <v>0.1123336679210813</v>
+      </c>
+      <c r="J85">
+        <v>0.07708928216272228</v>
+      </c>
+      <c r="K85">
+        <v>0.04995703301759512</v>
+      </c>
+      <c r="L85">
+        <v>0.009614234469202647</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06163426441733956</v>
+        <v>0.0819117669186487</v>
       </c>
       <c r="C86">
-        <v>0.0295419802299356</v>
+        <v>-0.02747046167741705</v>
       </c>
       <c r="D86">
-        <v>0.04375194682816214</v>
+        <v>0.1125155525917195</v>
       </c>
       <c r="E86">
-        <v>-0.04343462910285804</v>
+        <v>-0.0402467664771079</v>
       </c>
       <c r="F86">
-        <v>0.0379134015854976</v>
+        <v>-0.04725161593041123</v>
       </c>
       <c r="G86">
-        <v>0.03808868190119308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.273356024948248</v>
+      </c>
+      <c r="H86">
+        <v>0.4956785682076148</v>
+      </c>
+      <c r="I86">
+        <v>0.5165559876488249</v>
+      </c>
+      <c r="J86">
+        <v>0.3619865138524296</v>
+      </c>
+      <c r="K86">
+        <v>0.005053485603394552</v>
+      </c>
+      <c r="L86">
+        <v>0.006294224319329669</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1025415042704725</v>
+        <v>0.1162984523575424</v>
       </c>
       <c r="C87">
-        <v>0.05436961433595919</v>
+        <v>-0.09930425134372541</v>
       </c>
       <c r="D87">
-        <v>0.01619873337926549</v>
+        <v>0.03519259852142595</v>
       </c>
       <c r="E87">
-        <v>-0.07938556243675828</v>
+        <v>-0.02995738738782792</v>
       </c>
       <c r="F87">
-        <v>-0.0110130341766063</v>
+        <v>-0.1374908574344808</v>
       </c>
       <c r="G87">
-        <v>0.1213313735961521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01934396152783416</v>
+      </c>
+      <c r="H87">
+        <v>0.0900293886682388</v>
+      </c>
+      <c r="I87">
+        <v>-0.09015988758705661</v>
+      </c>
+      <c r="J87">
+        <v>0.1109887262311502</v>
+      </c>
+      <c r="K87">
+        <v>0.01030163519513739</v>
+      </c>
+      <c r="L87">
+        <v>0.267134670189773</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.06497580839846988</v>
+        <v>0.05537105426165802</v>
       </c>
       <c r="C88">
-        <v>0.03320263848788232</v>
+        <v>-0.04780024124576319</v>
       </c>
       <c r="D88">
-        <v>0.02466070245544077</v>
+        <v>0.03000376496938438</v>
       </c>
       <c r="E88">
-        <v>-0.00903961603668273</v>
+        <v>0.02817000646324259</v>
       </c>
       <c r="F88">
-        <v>0.003063352406173429</v>
+        <v>-0.02956856094789733</v>
       </c>
       <c r="G88">
-        <v>0.04624004987593623</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0426971096507478</v>
+      </c>
+      <c r="H88">
+        <v>-0.0007814880127489345</v>
+      </c>
+      <c r="I88">
+        <v>-0.02389754814015775</v>
+      </c>
+      <c r="J88">
+        <v>-0.0460225512840786</v>
+      </c>
+      <c r="K88">
+        <v>-0.03958700653506259</v>
+      </c>
+      <c r="L88">
+        <v>-0.05673662478532862</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.112321878032269</v>
+        <v>0.1810833940496386</v>
       </c>
       <c r="C89">
-        <v>-0.3605139045426947</v>
+        <v>0.373256518165324</v>
       </c>
       <c r="D89">
-        <v>0.1223144456091793</v>
+        <v>0.02937384195341954</v>
       </c>
       <c r="E89">
-        <v>-0.05798245408555697</v>
+        <v>-0.04989834755605955</v>
       </c>
       <c r="F89">
-        <v>0.06642262952253006</v>
+        <v>-0.02686986940438362</v>
       </c>
       <c r="G89">
-        <v>0.01718862961207834</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03473120103339985</v>
+      </c>
+      <c r="H89">
+        <v>0.01252711343741615</v>
+      </c>
+      <c r="I89">
+        <v>-0.07019161469304486</v>
+      </c>
+      <c r="J89">
+        <v>-0.03858261360630892</v>
+      </c>
+      <c r="K89">
+        <v>-0.06025303873474288</v>
+      </c>
+      <c r="L89">
+        <v>0.01617046469382635</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.08763880509774404</v>
+        <v>0.1404970509305414</v>
       </c>
       <c r="C90">
-        <v>-0.2834056831389226</v>
+        <v>0.2727293650398321</v>
       </c>
       <c r="D90">
-        <v>0.0598003906050795</v>
+        <v>0.01254079125950665</v>
       </c>
       <c r="E90">
-        <v>-0.05973998091145213</v>
+        <v>-0.001637008002104148</v>
       </c>
       <c r="F90">
-        <v>0.04051634175108563</v>
+        <v>-0.04387527543898036</v>
       </c>
       <c r="G90">
-        <v>0.07740492571295357</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02317337452908318</v>
+      </c>
+      <c r="H90">
+        <v>0.0595304039431989</v>
+      </c>
+      <c r="I90">
+        <v>-0.01883111702321635</v>
+      </c>
+      <c r="J90">
+        <v>-0.03979069922014886</v>
+      </c>
+      <c r="K90">
+        <v>0.03173617598117919</v>
+      </c>
+      <c r="L90">
+        <v>-0.01320877823752353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.08314342801619096</v>
+        <v>0.08066602912482485</v>
       </c>
       <c r="C91">
-        <v>0.02285769664702866</v>
+        <v>-0.04379880208941693</v>
       </c>
       <c r="D91">
-        <v>0.001693333657154451</v>
+        <v>0.02714489887103164</v>
       </c>
       <c r="E91">
-        <v>0.02353067068577654</v>
+        <v>-0.005951201951893316</v>
       </c>
       <c r="F91">
-        <v>-0.07467464027451624</v>
+        <v>0.02713736988567177</v>
       </c>
       <c r="G91">
-        <v>-0.05592782038249345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.05791074940772195</v>
+      </c>
+      <c r="H91">
+        <v>-0.07161570147054511</v>
+      </c>
+      <c r="I91">
+        <v>0.07045155913530185</v>
+      </c>
+      <c r="J91">
+        <v>0.02344376878186237</v>
+      </c>
+      <c r="K91">
+        <v>-0.0006213390928677034</v>
+      </c>
+      <c r="L91">
+        <v>-0.002413631027474425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.08778960664989557</v>
+        <v>0.1540750054451358</v>
       </c>
       <c r="C92">
-        <v>-0.3363858235792414</v>
+        <v>0.3279343917214879</v>
       </c>
       <c r="D92">
-        <v>0.08182634186212324</v>
+        <v>0.001111063033852863</v>
       </c>
       <c r="E92">
-        <v>-0.04165772025088527</v>
+        <v>-0.04091544572530859</v>
       </c>
       <c r="F92">
-        <v>0.02224572961586853</v>
+        <v>-0.05212309790041836</v>
       </c>
       <c r="G92">
-        <v>-0.09109158844100881</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.009939510613666195</v>
+      </c>
+      <c r="H92">
+        <v>-0.04192060411419916</v>
+      </c>
+      <c r="I92">
+        <v>0.00561489931076412</v>
+      </c>
+      <c r="J92">
+        <v>-0.03385512862354962</v>
+      </c>
+      <c r="K92">
+        <v>-0.04000736650991037</v>
+      </c>
+      <c r="L92">
+        <v>-0.03184600874259946</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.1001490423923762</v>
+        <v>0.1466212687390597</v>
       </c>
       <c r="C93">
-        <v>-0.2833050276475009</v>
+        <v>0.3060691813594316</v>
       </c>
       <c r="D93">
-        <v>0.06061999699460931</v>
+        <v>0.02353618699673311</v>
       </c>
       <c r="E93">
-        <v>-0.01538811314714395</v>
+        <v>0.0248597751907813</v>
       </c>
       <c r="F93">
-        <v>0.02088992314747582</v>
+        <v>-0.01500027641170025</v>
       </c>
       <c r="G93">
-        <v>-0.008902130305603866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02153157890466882</v>
+      </c>
+      <c r="H93">
+        <v>0.05090883160679125</v>
+      </c>
+      <c r="I93">
+        <v>0.01090899320559579</v>
+      </c>
+      <c r="J93">
+        <v>0.02110747813849184</v>
+      </c>
+      <c r="K93">
+        <v>-0.01435961746112186</v>
+      </c>
+      <c r="L93">
+        <v>-0.01693256219269054</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.09066428146165414</v>
+        <v>0.1189666966732718</v>
       </c>
       <c r="C94">
-        <v>0.04677437630300573</v>
+        <v>-0.06072800842481745</v>
       </c>
       <c r="D94">
-        <v>-0.009599335604787259</v>
+        <v>0.01562293295696793</v>
       </c>
       <c r="E94">
-        <v>0.03340341934350963</v>
+        <v>-0.01205572167980814</v>
       </c>
       <c r="F94">
-        <v>-0.1313990590503067</v>
+        <v>0.04830405794376497</v>
       </c>
       <c r="G94">
-        <v>-0.04366770378934108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.08110215001206036</v>
+      </c>
+      <c r="H94">
+        <v>-0.09881767002245079</v>
+      </c>
+      <c r="I94">
+        <v>0.09474569112934983</v>
+      </c>
+      <c r="J94">
+        <v>0.006134266679637491</v>
+      </c>
+      <c r="K94">
+        <v>0.006643735593427662</v>
+      </c>
+      <c r="L94">
+        <v>-0.03888068224175579</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1316340647120415</v>
+        <v>0.120998026108989</v>
       </c>
       <c r="C95">
-        <v>0.06903534114976079</v>
+        <v>-0.06930888982242864</v>
       </c>
       <c r="D95">
-        <v>0.06309756381044207</v>
+        <v>0.04581988207491663</v>
       </c>
       <c r="E95">
-        <v>-0.04191210399982281</v>
+        <v>-0.02178486963457834</v>
       </c>
       <c r="F95">
-        <v>0.04839736026461498</v>
+        <v>-0.0676850411406268</v>
       </c>
       <c r="G95">
-        <v>0.08867356616845934</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1254430832422045</v>
+      </c>
+      <c r="H95">
+        <v>0.1989889488287643</v>
+      </c>
+      <c r="I95">
+        <v>-0.03107912984059477</v>
+      </c>
+      <c r="J95">
+        <v>0.08922704129361023</v>
+      </c>
+      <c r="K95">
+        <v>-0.08767598251465275</v>
+      </c>
+      <c r="L95">
+        <v>0.002350359361316248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.004523984535795781</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.00548996175912465</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.000624062405189249</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0004623055581993003</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.006763219544567362</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.01905173213779222</v>
+      </c>
+      <c r="H96">
+        <v>-0.01361028233617733</v>
+      </c>
+      <c r="I96">
+        <v>-0.01342186743544885</v>
+      </c>
+      <c r="J96">
+        <v>-0.002708383376546319</v>
+      </c>
+      <c r="K96">
+        <v>0.01099226806037966</v>
+      </c>
+      <c r="L96">
+        <v>0.006929743959542399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2123301453379092</v>
+        <v>0.1914796664676159</v>
       </c>
       <c r="C97">
-        <v>-0.1641573441366877</v>
+        <v>-0.05403977188582047</v>
       </c>
       <c r="D97">
-        <v>-0.8966705948551456</v>
+        <v>-0.9319671882003425</v>
       </c>
       <c r="E97">
-        <v>0.01393055827135023</v>
+        <v>0.1523510806286324</v>
       </c>
       <c r="F97">
-        <v>0.08854656981534899</v>
+        <v>0.06948919829687494</v>
       </c>
       <c r="G97">
-        <v>0.02210634804181229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.01430187257104799</v>
+      </c>
+      <c r="H97">
+        <v>0.1159126170276011</v>
+      </c>
+      <c r="I97">
+        <v>0.04896637221329911</v>
+      </c>
+      <c r="J97">
+        <v>0.0206531426009322</v>
+      </c>
+      <c r="K97">
+        <v>0.004676270068922747</v>
+      </c>
+      <c r="L97">
+        <v>0.06262656376189243</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.3071941523389235</v>
+        <v>0.259692280194453</v>
       </c>
       <c r="C98">
-        <v>0.08625119961499374</v>
+        <v>-0.09128630577009707</v>
       </c>
       <c r="D98">
-        <v>0.08944466413928058</v>
+        <v>0.04201149658293669</v>
       </c>
       <c r="E98">
-        <v>0.2250806310581268</v>
+        <v>-0.01542882785224199</v>
       </c>
       <c r="F98">
-        <v>0.2537736579458976</v>
+        <v>0.3989178745355941</v>
       </c>
       <c r="G98">
-        <v>-0.3365000639402632</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2037977440405754</v>
+      </c>
+      <c r="H98">
+        <v>-0.03728118831782925</v>
+      </c>
+      <c r="I98">
+        <v>-0.2059800775981593</v>
+      </c>
+      <c r="J98">
+        <v>-0.0161326671064585</v>
+      </c>
+      <c r="K98">
+        <v>-0.4582708598237177</v>
+      </c>
+      <c r="L98">
+        <v>0.3128745930586198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.08122324179369743</v>
+        <v>0.06361418665301312</v>
       </c>
       <c r="C99">
-        <v>0.03109642181284615</v>
+        <v>-0.03466322951616878</v>
       </c>
       <c r="D99">
-        <v>0.01114823116525118</v>
+        <v>0.01873158128797887</v>
       </c>
       <c r="E99">
-        <v>-0.02128474107439458</v>
+        <v>-0.007979724752798579</v>
       </c>
       <c r="F99">
-        <v>-0.03807887249713814</v>
+        <v>0.009580295381788393</v>
       </c>
       <c r="G99">
-        <v>0.03802635861621034</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.007807959914500637</v>
+      </c>
+      <c r="H99">
+        <v>-0.03205355466795323</v>
+      </c>
+      <c r="I99">
+        <v>-0.006512844127054109</v>
+      </c>
+      <c r="J99">
+        <v>-0.05111384215798348</v>
+      </c>
+      <c r="K99">
+        <v>0.02107657004243979</v>
+      </c>
+      <c r="L99">
+        <v>0.006896380403958211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0008097237646650914</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.003266367678589934</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.06535825979428186</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.01947205030225248</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.03713105980417914</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.007369810849448828</v>
+      </c>
+      <c r="H100">
+        <v>0.004754979352799718</v>
+      </c>
+      <c r="I100">
+        <v>-0.06248707444535119</v>
+      </c>
+      <c r="J100">
+        <v>0.01403526492777155</v>
+      </c>
+      <c r="K100">
+        <v>-0.07433044319426516</v>
+      </c>
+      <c r="L100">
+        <v>0.02028925849725546</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.0551179951143231</v>
+        <v>0.04088314592307569</v>
       </c>
       <c r="C101">
-        <v>0.007056086276187964</v>
+        <v>-0.0262125465708241</v>
       </c>
       <c r="D101">
-        <v>0.0182235746382698</v>
+        <v>0.02726579933020732</v>
       </c>
       <c r="E101">
-        <v>-0.03237343168576427</v>
+        <v>0.001040402376108746</v>
       </c>
       <c r="F101">
-        <v>-0.03048668552112581</v>
+        <v>-0.05656856018173182</v>
       </c>
       <c r="G101">
-        <v>-0.002810058532228507</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03107642626834415</v>
+      </c>
+      <c r="H101">
+        <v>-0.01260776211005943</v>
+      </c>
+      <c r="I101">
+        <v>-0.002625072656586067</v>
+      </c>
+      <c r="J101">
+        <v>0.03720643358799137</v>
+      </c>
+      <c r="K101">
+        <v>-0.09456710956492606</v>
+      </c>
+      <c r="L101">
+        <v>-0.023536622408628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
